--- a/data/raw/d_real_gdp_per_capita_raw.xlsx
+++ b/data/raw/d_real_gdp_per_capita_raw.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>69359.0</t>
+          <t>69399.0</t>
         </is>
       </c>
     </row>
